--- a/Donnees/Statistiques Economiques/Agriculture (5).xlsx
+++ b/Donnees/Statistiques Economiques/Agriculture (5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Annuaire\Chapitres_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Ansade_Project\Donnees\Statistiques Economiques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937AF57-8A8D-4990-968A-3B377A9AE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28957F7E-103F-4D92-96C3-7A255B423450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agri1" sheetId="5" r:id="rId1"/>
@@ -32456,8 +32456,8 @@
   </sheetPr>
   <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:AM2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33222,7 +33222,7 @@
   </sheetPr>
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
